--- a/HoI2Editor/Documents/units.xlsx
+++ b/HoI2Editor/Documents/units.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="UnitType" sheetId="1" r:id="rId1"/>
-    <sheet name="RealUnitType" sheetId="2" r:id="rId2"/>
-    <sheet name="SpriteType" sheetId="3" r:id="rId3"/>
-    <sheet name="EquipmentType" sheetId="4" r:id="rId4"/>
+    <sheet name="編集項目" sheetId="5" r:id="rId1"/>
+    <sheet name="UnitType" sheetId="1" r:id="rId2"/>
+    <sheet name="RealUnitType" sheetId="2" r:id="rId3"/>
+    <sheet name="SpriteType" sheetId="3" r:id="rId4"/>
+    <sheet name="EquipmentType" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">編集項目!$A$1:$N$72</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1577">
   <si>
     <t>Infantry</t>
   </si>
@@ -4612,6 +4616,615 @@
     <rPh sb="0" eb="3">
       <t>ソウビメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短縮名</t>
+    <rPh sb="0" eb="3">
+      <t>タンシュクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短縮説明</t>
+    <rPh sb="0" eb="4">
+      <t>タンシュクセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計グループ</t>
+    <rPh sb="0" eb="2">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像優先度</t>
+    <rPh sb="0" eb="5">
+      <t>ガゾウユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト優先度</t>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI優先度</t>
+    <rPh sb="2" eb="5">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替ユニット</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDA1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AoD1.08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユニットクラス]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍事力</t>
+    <rPh sb="0" eb="3">
+      <t>グンジリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着脱可能</t>
+    <rPh sb="0" eb="4">
+      <t>チャクダツカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空母航空隊</t>
+    <rPh sb="0" eb="5">
+      <t>クウボコウクウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>護衛戦闘機</t>
+    <rPh sb="0" eb="5">
+      <t>ゴエイセントウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工兵</t>
+    <rPh sb="0" eb="2">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準の生産タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期生産可能</t>
+    <rPh sb="0" eb="6">
+      <t>ショキセイサンカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大付属旅団数</t>
+    <rPh sb="0" eb="7">
+      <t>サイダイフゾクリョダンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付属旅団</t>
+    <rPh sb="0" eb="4">
+      <t>フゾクリョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ユニットモデル]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織率</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>士気</t>
+    <rPh sb="0" eb="2">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航続距離</t>
+    <rPh sb="0" eb="4">
+      <t>コウゾクキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送負荷</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送能力</t>
+    <rPh sb="0" eb="4">
+      <t>ユソウノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制圧力</t>
+    <rPh sb="0" eb="3">
+      <t>セイアツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費物資</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費燃料</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陸軍師団</t>
+    <rPh sb="0" eb="2">
+      <t>リクグン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海軍師団</t>
+    <rPh sb="0" eb="4">
+      <t>カイグンシダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空軍師団</t>
+    <rPh sb="0" eb="4">
+      <t>クウグンシダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陸軍旅団</t>
+    <rPh sb="0" eb="4">
+      <t>リクグンリョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海軍旅団</t>
+    <rPh sb="0" eb="4">
+      <t>カイグンリョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空軍旅団</t>
+    <rPh sb="0" eb="4">
+      <t>クウグンリョダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大物資</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイブッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大燃料</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要IC</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要時間</t>
+    <rPh sb="0" eb="4">
+      <t>ヒツヨウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>労働力</t>
+    <rPh sb="0" eb="3">
+      <t>ロウドウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良コスト</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良時間</t>
+    <rPh sb="0" eb="4">
+      <t>カイリョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補充時間</t>
+    <rPh sb="0" eb="4">
+      <t>ホジュウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大速度</t>
+    <rPh sb="0" eb="4">
+      <t>サイダイソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>タイクウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦車速度キャップ</t>
+    <rPh sb="0" eb="3">
+      <t>タイセンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲兵速度キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対艦防御力</t>
+    <rPh sb="0" eb="2">
+      <t>タイカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空防御力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対地防御力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆弱性</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対人攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイジンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対甲攻撃力</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦対艦攻撃力</t>
+    <rPh sb="0" eb="6">
+      <t>カンタイカンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船団攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>センダンコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沿岸砲撃能力</t>
+    <rPh sb="0" eb="6">
+      <t>エンガンホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空攻撃力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空対艦攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>クウタイカン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦略爆撃攻撃力</t>
+    <rPh sb="0" eb="7">
+      <t>センリャクバクゲキコウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砲撃能力</t>
+    <rPh sb="0" eb="4">
+      <t>ホウゲキノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <rPh sb="0" eb="2">
+      <t>シャテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視認性</t>
+    <rPh sb="0" eb="3">
+      <t>シニンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対地索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイチサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対潜索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイセンサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対空索敵力</t>
+    <rPh sb="0" eb="5">
+      <t>タイクウサクテキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料切れ補正</t>
+    <rPh sb="0" eb="3">
+      <t>ネンリョウギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4655,8 +5268,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4958,6 +5574,2666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="14" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N72"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13264,7 +16540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -13733,7 +17009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
@@ -15316,11 +18592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/HoI2Editor/Documents/units.xlsx
+++ b/HoI2Editor/Documents/units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="編集項目" sheetId="5" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">編集項目!$A$1:$N$72</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1578">
   <si>
     <t>Infantry</t>
   </si>
@@ -5225,6 +5225,22 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大付属旅団数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リョダン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5576,7 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8234,11 +8250,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8249,7 +8263,7 @@
     <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1237</v>
       </c>
@@ -8280,8 +8294,11 @@
       <c r="J1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8312,8 +8329,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8344,8 +8364,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8376,8 +8399,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8408,8 +8434,11 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8440,8 +8469,11 @@
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8472,8 +8504,11 @@
       <c r="J7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8504,8 +8539,11 @@
       <c r="J8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8536,8 +8574,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8568,8 +8609,11 @@
       <c r="J10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -8600,8 +8644,11 @@
       <c r="J11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -8632,8 +8679,11 @@
       <c r="J12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -8664,8 +8714,11 @@
       <c r="J13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -8696,8 +8749,11 @@
       <c r="J14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -8728,8 +8784,11 @@
       <c r="J15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8760,8 +8819,11 @@
       <c r="J16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -8792,8 +8854,11 @@
       <c r="J17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -8824,8 +8889,11 @@
       <c r="J18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -8856,8 +8924,11 @@
       <c r="J19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8888,8 +8959,11 @@
       <c r="J20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8920,8 +8994,11 @@
       <c r="J21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8952,8 +9029,11 @@
       <c r="J22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -8984,8 +9064,11 @@
       <c r="J23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -9016,8 +9099,11 @@
       <c r="J24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -9048,8 +9134,11 @@
       <c r="J25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -9080,8 +9169,11 @@
       <c r="J26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -9112,8 +9204,11 @@
       <c r="J27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9144,8 +9239,11 @@
       <c r="J28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -9176,8 +9274,11 @@
       <c r="J29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -9208,8 +9309,11 @@
       <c r="J30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9240,8 +9344,11 @@
       <c r="J31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -9272,8 +9379,11 @@
       <c r="J32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9298,8 +9408,11 @@
       <c r="J33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -9324,8 +9437,11 @@
       <c r="J34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -9350,8 +9466,11 @@
       <c r="J35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -9376,8 +9495,11 @@
       <c r="J36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -9402,8 +9524,11 @@
       <c r="J37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -9428,8 +9553,11 @@
       <c r="J38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -9454,8 +9582,11 @@
       <c r="J39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -9480,8 +9611,11 @@
       <c r="J40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9506,8 +9640,11 @@
       <c r="J41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -9532,8 +9669,11 @@
       <c r="J42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -9558,8 +9698,11 @@
       <c r="J43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -9584,8 +9727,11 @@
       <c r="J44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -9610,8 +9756,11 @@
       <c r="J45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -9636,8 +9785,11 @@
       <c r="J46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -9662,8 +9814,11 @@
       <c r="J47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -9688,8 +9843,11 @@
       <c r="J48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -9714,8 +9872,11 @@
       <c r="J49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -9740,8 +9901,11 @@
       <c r="J50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9766,8 +9930,11 @@
       <c r="J51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9792,8 +9959,11 @@
       <c r="J52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9818,8 +9988,11 @@
       <c r="J53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9844,8 +10017,11 @@
       <c r="J54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9870,8 +10046,11 @@
       <c r="J55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -9896,8 +10075,11 @@
       <c r="J56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -9922,8 +10104,11 @@
       <c r="J57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -9948,8 +10133,11 @@
       <c r="J58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -9974,8 +10162,11 @@
       <c r="J59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -10000,8 +10191,11 @@
       <c r="J60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -10026,8 +10220,11 @@
       <c r="J61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -10052,8 +10249,11 @@
       <c r="J62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -10078,8 +10278,11 @@
       <c r="J63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -10104,8 +10307,11 @@
       <c r="J64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -10130,8 +10336,11 @@
       <c r="J65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -10156,8 +10365,11 @@
       <c r="J66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10182,8 +10394,11 @@
       <c r="J67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10208,8 +10423,11 @@
       <c r="J68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10234,8 +10452,11 @@
       <c r="J69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -10260,8 +10481,11 @@
       <c r="J70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -10286,8 +10510,11 @@
       <c r="J71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -10312,8 +10539,11 @@
       <c r="J72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -10338,8 +10568,11 @@
       <c r="J73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -10364,8 +10597,11 @@
       <c r="J74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -10390,8 +10626,11 @@
       <c r="J75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -10416,8 +10655,11 @@
       <c r="J76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -10442,8 +10684,11 @@
       <c r="J77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -10468,8 +10713,11 @@
       <c r="J78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -10494,8 +10742,11 @@
       <c r="J79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10520,8 +10771,11 @@
       <c r="J80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -10546,8 +10800,11 @@
       <c r="J81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -10572,8 +10829,11 @@
       <c r="J82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -10598,8 +10858,11 @@
       <c r="J83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -10624,8 +10887,11 @@
       <c r="J84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -10650,8 +10916,11 @@
       <c r="J85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -10676,8 +10945,11 @@
       <c r="J86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -10702,8 +10974,11 @@
       <c r="J87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -10728,8 +11003,11 @@
       <c r="J88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10754,8 +11032,11 @@
       <c r="J89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -10780,8 +11061,11 @@
       <c r="J90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -10806,8 +11090,11 @@
       <c r="J91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -10832,8 +11119,11 @@
       <c r="J92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -10858,8 +11148,11 @@
       <c r="J93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -10884,8 +11177,11 @@
       <c r="J94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -10910,8 +11206,11 @@
       <c r="J95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -10936,8 +11235,11 @@
       <c r="J96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -10962,8 +11264,11 @@
       <c r="J97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -10988,8 +11293,11 @@
       <c r="J98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -11014,8 +11322,11 @@
       <c r="J99">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11040,8 +11351,11 @@
       <c r="J100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -11066,8 +11380,11 @@
       <c r="J101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -11092,8 +11409,11 @@
       <c r="J102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -11118,8 +11438,11 @@
       <c r="J103">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -11144,8 +11467,11 @@
       <c r="J104">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -11170,8 +11496,11 @@
       <c r="J105">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -11196,8 +11525,11 @@
       <c r="J106">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -11222,8 +11554,11 @@
       <c r="J107">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -11248,8 +11583,11 @@
       <c r="J108">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -11274,8 +11612,11 @@
       <c r="J109">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -11300,8 +11641,11 @@
       <c r="J110">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -11326,8 +11670,11 @@
       <c r="J111">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -11352,8 +11699,11 @@
       <c r="J112">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -11378,8 +11728,11 @@
       <c r="J113">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -11404,8 +11757,11 @@
       <c r="J114">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -11430,8 +11786,11 @@
       <c r="J115">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -11456,8 +11815,11 @@
       <c r="J116">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -11482,8 +11844,11 @@
       <c r="J117">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -11508,8 +11873,11 @@
       <c r="J118">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -11534,8 +11902,11 @@
       <c r="J119">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -11560,8 +11931,11 @@
       <c r="J120">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -11586,8 +11960,11 @@
       <c r="J121">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -11612,8 +11989,11 @@
       <c r="J122">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -11638,8 +12018,11 @@
       <c r="J123">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -11664,8 +12047,11 @@
       <c r="J124">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -11690,8 +12076,11 @@
       <c r="J125">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -11716,8 +12105,11 @@
       <c r="J126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -11742,8 +12134,11 @@
       <c r="J127">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -11768,8 +12163,11 @@
       <c r="J128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -11794,8 +12192,11 @@
       <c r="J129">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -11820,8 +12221,11 @@
       <c r="J130">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -11846,8 +12250,11 @@
       <c r="J131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -11872,8 +12279,11 @@
       <c r="J132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -11898,8 +12308,11 @@
       <c r="J133">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -11924,8 +12337,11 @@
       <c r="J134">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -11950,8 +12366,11 @@
       <c r="J135">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -11976,8 +12395,11 @@
       <c r="J136">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -12002,8 +12424,11 @@
       <c r="J137">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -12028,8 +12453,11 @@
       <c r="J138">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -12054,8 +12482,11 @@
       <c r="J139">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -12080,8 +12511,11 @@
       <c r="J140">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -12106,8 +12540,11 @@
       <c r="J141">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -12138,8 +12575,11 @@
       <c r="J142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -12170,8 +12610,11 @@
       <c r="J143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -12202,8 +12645,11 @@
       <c r="J144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -12234,8 +12680,11 @@
       <c r="J145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -12266,8 +12715,11 @@
       <c r="J146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -12298,8 +12750,11 @@
       <c r="J147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -12330,8 +12785,11 @@
       <c r="J148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -12362,8 +12820,11 @@
       <c r="J149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -12394,8 +12855,11 @@
       <c r="J150">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -12426,8 +12890,11 @@
       <c r="J151">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -12458,8 +12925,11 @@
       <c r="J152">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -12490,8 +12960,11 @@
       <c r="J153">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -12522,8 +12995,11 @@
       <c r="J154">
         <v>12</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -12554,8 +13030,11 @@
       <c r="J155">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -12586,8 +13065,11 @@
       <c r="J156">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -12618,8 +13100,11 @@
       <c r="J157">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -12650,8 +13135,11 @@
       <c r="J158">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -12682,8 +13170,11 @@
       <c r="J159">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -12714,8 +13205,11 @@
       <c r="J160">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -12746,8 +13240,11 @@
       <c r="J161">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -12778,8 +13275,11 @@
       <c r="J162">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -12810,8 +13310,11 @@
       <c r="J163">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -12842,8 +13345,11 @@
       <c r="J164">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -12874,8 +13380,11 @@
       <c r="J165">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -12906,8 +13415,11 @@
       <c r="J166">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -12938,8 +13450,11 @@
       <c r="J167">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -12970,8 +13485,11 @@
       <c r="J168">
         <v>26</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -12996,8 +13514,11 @@
       <c r="J169">
         <v>27</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -13022,8 +13543,11 @@
       <c r="J170">
         <v>28</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -13048,8 +13572,11 @@
       <c r="J171">
         <v>29</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -13074,8 +13601,11 @@
       <c r="J172">
         <v>30</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1209</v>
       </c>
@@ -13100,8 +13630,11 @@
       <c r="J173">
         <v>31</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1210</v>
       </c>
@@ -13126,8 +13659,11 @@
       <c r="J174">
         <v>32</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1211</v>
       </c>
@@ -13152,8 +13688,11 @@
       <c r="J175">
         <v>33</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1212</v>
       </c>
@@ -13178,8 +13717,11 @@
       <c r="J176">
         <v>34</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1213</v>
       </c>
@@ -13204,8 +13746,11 @@
       <c r="J177">
         <v>35</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1214</v>
       </c>
@@ -13230,8 +13775,11 @@
       <c r="J178">
         <v>36</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1215</v>
       </c>
@@ -13256,8 +13804,11 @@
       <c r="J179">
         <v>37</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1216</v>
       </c>
@@ -13282,8 +13833,11 @@
       <c r="J180">
         <v>38</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1217</v>
       </c>
@@ -13308,8 +13862,11 @@
       <c r="J181">
         <v>39</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1218</v>
       </c>
@@ -13334,8 +13891,11 @@
       <c r="J182">
         <v>40</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1219</v>
       </c>
@@ -13360,8 +13920,11 @@
       <c r="J183">
         <v>41</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1220</v>
       </c>
@@ -13386,8 +13949,11 @@
       <c r="J184">
         <v>42</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1221</v>
       </c>
@@ -13412,8 +13978,11 @@
       <c r="J185">
         <v>43</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1222</v>
       </c>
@@ -13438,8 +14007,11 @@
       <c r="J186">
         <v>44</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1223</v>
       </c>
@@ -13464,8 +14036,11 @@
       <c r="J187">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1224</v>
       </c>
@@ -13490,8 +14065,11 @@
       <c r="J188">
         <v>46</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1225</v>
       </c>
@@ -13516,8 +14094,11 @@
       <c r="J189">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1226</v>
       </c>
@@ -13542,8 +14123,11 @@
       <c r="J190">
         <v>48</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1227</v>
       </c>
@@ -13568,8 +14152,11 @@
       <c r="J191">
         <v>49</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1228</v>
       </c>
@@ -13594,8 +14181,11 @@
       <c r="J192">
         <v>50</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>171</v>
       </c>
@@ -13620,8 +14210,11 @@
       <c r="J193">
         <v>27</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>172</v>
       </c>
@@ -13646,8 +14239,11 @@
       <c r="J194">
         <v>28</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -13672,8 +14268,11 @@
       <c r="J195">
         <v>29</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -13698,8 +14297,11 @@
       <c r="J196">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -13724,8 +14326,11 @@
       <c r="J197">
         <v>31</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>176</v>
       </c>
@@ -13750,8 +14355,11 @@
       <c r="J198">
         <v>32</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>177</v>
       </c>
@@ -13776,8 +14384,11 @@
       <c r="J199">
         <v>33</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>178</v>
       </c>
@@ -13802,8 +14413,11 @@
       <c r="J200">
         <v>34</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>179</v>
       </c>
@@ -13828,8 +14442,11 @@
       <c r="J201">
         <v>35</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1105</v>
       </c>
@@ -13854,8 +14471,11 @@
       <c r="J202">
         <v>36</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1106</v>
       </c>
@@ -13880,8 +14500,11 @@
       <c r="J203">
         <v>37</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1107</v>
       </c>
@@ -13906,8 +14529,11 @@
       <c r="J204">
         <v>38</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1108</v>
       </c>
@@ -13932,8 +14558,11 @@
       <c r="J205">
         <v>39</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1109</v>
       </c>
@@ -13958,8 +14587,11 @@
       <c r="J206">
         <v>40</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1110</v>
       </c>
@@ -13984,8 +14616,11 @@
       <c r="J207">
         <v>41</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1111</v>
       </c>
@@ -14010,8 +14645,11 @@
       <c r="J208">
         <v>42</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1112</v>
       </c>
@@ -14036,8 +14674,11 @@
       <c r="J209">
         <v>43</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1113</v>
       </c>
@@ -14062,8 +14703,11 @@
       <c r="J210">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1114</v>
       </c>
@@ -14088,8 +14732,11 @@
       <c r="J211">
         <v>45</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1115</v>
       </c>
@@ -14114,8 +14761,11 @@
       <c r="J212">
         <v>46</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1116</v>
       </c>
@@ -14140,8 +14790,11 @@
       <c r="J213">
         <v>47</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1117</v>
       </c>
@@ -14166,8 +14819,11 @@
       <c r="J214">
         <v>48</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1118</v>
       </c>
@@ -14192,8 +14848,11 @@
       <c r="J215">
         <v>49</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1119</v>
       </c>
@@ -14218,8 +14877,11 @@
       <c r="J216">
         <v>50</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1120</v>
       </c>
@@ -14244,8 +14906,11 @@
       <c r="J217">
         <v>51</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1121</v>
       </c>
@@ -14270,8 +14935,11 @@
       <c r="J218">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1122</v>
       </c>
@@ -14296,8 +14964,11 @@
       <c r="J219">
         <v>53</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1123</v>
       </c>
@@ -14322,8 +14993,11 @@
       <c r="J220">
         <v>54</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1124</v>
       </c>
@@ -14348,8 +15022,11 @@
       <c r="J221">
         <v>55</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1125</v>
       </c>
@@ -14374,8 +15051,11 @@
       <c r="J222">
         <v>56</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1126</v>
       </c>
@@ -14400,8 +15080,11 @@
       <c r="J223">
         <v>57</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1127</v>
       </c>
@@ -14426,8 +15109,11 @@
       <c r="J224">
         <v>58</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1128</v>
       </c>
@@ -14452,8 +15138,11 @@
       <c r="J225">
         <v>59</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1129</v>
       </c>
@@ -14478,8 +15167,11 @@
       <c r="J226">
         <v>60</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1130</v>
       </c>
@@ -14504,8 +15196,11 @@
       <c r="J227">
         <v>61</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1131</v>
       </c>
@@ -14530,8 +15225,11 @@
       <c r="J228">
         <v>62</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1132</v>
       </c>
@@ -14556,8 +15254,11 @@
       <c r="J229">
         <v>63</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1133</v>
       </c>
@@ -14582,8 +15283,11 @@
       <c r="J230">
         <v>64</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1134</v>
       </c>
@@ -14608,8 +15312,11 @@
       <c r="J231">
         <v>65</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1135</v>
       </c>
@@ -14634,8 +15341,11 @@
       <c r="J232">
         <v>66</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -14660,8 +15370,11 @@
       <c r="J233">
         <v>67</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1137</v>
       </c>
@@ -14686,8 +15399,11 @@
       <c r="J234">
         <v>68</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1138</v>
       </c>
@@ -14712,8 +15428,11 @@
       <c r="J235">
         <v>69</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1139</v>
       </c>
@@ -14738,8 +15457,11 @@
       <c r="J236">
         <v>70</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1140</v>
       </c>
@@ -14764,8 +15486,11 @@
       <c r="J237">
         <v>71</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1141</v>
       </c>
@@ -14790,8 +15515,11 @@
       <c r="J238">
         <v>72</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1142</v>
       </c>
@@ -14816,8 +15544,11 @@
       <c r="J239">
         <v>73</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1143</v>
       </c>
@@ -14842,8 +15573,11 @@
       <c r="J240">
         <v>74</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1144</v>
       </c>
@@ -14868,8 +15602,11 @@
       <c r="J241">
         <v>75</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1145</v>
       </c>
@@ -14894,8 +15631,11 @@
       <c r="J242">
         <v>76</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1146</v>
       </c>
@@ -14920,8 +15660,11 @@
       <c r="J243">
         <v>77</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1147</v>
       </c>
@@ -14946,8 +15689,11 @@
       <c r="J244">
         <v>78</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1148</v>
       </c>
@@ -14972,8 +15718,11 @@
       <c r="J245">
         <v>79</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1149</v>
       </c>
@@ -14998,8 +15747,11 @@
       <c r="J246">
         <v>80</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1150</v>
       </c>
@@ -15024,8 +15776,11 @@
       <c r="J247">
         <v>81</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1151</v>
       </c>
@@ -15050,8 +15805,11 @@
       <c r="J248">
         <v>82</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1152</v>
       </c>
@@ -15076,8 +15834,11 @@
       <c r="J249">
         <v>83</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1153</v>
       </c>
@@ -15102,8 +15863,11 @@
       <c r="J250">
         <v>84</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1154</v>
       </c>
@@ -15128,8 +15892,11 @@
       <c r="J251">
         <v>85</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1155</v>
       </c>
@@ -15154,8 +15921,11 @@
       <c r="J252">
         <v>86</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1156</v>
       </c>
@@ -15180,8 +15950,11 @@
       <c r="J253">
         <v>87</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1157</v>
       </c>
@@ -15206,8 +15979,11 @@
       <c r="J254">
         <v>88</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1158</v>
       </c>
@@ -15232,8 +16008,11 @@
       <c r="J255">
         <v>89</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1159</v>
       </c>
@@ -15258,8 +16037,11 @@
       <c r="J256">
         <v>90</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1160</v>
       </c>
@@ -15284,8 +16066,11 @@
       <c r="J257">
         <v>91</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1161</v>
       </c>
@@ -15310,8 +16095,11 @@
       <c r="J258">
         <v>92</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1162</v>
       </c>
@@ -15336,8 +16124,11 @@
       <c r="J259">
         <v>93</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1163</v>
       </c>
@@ -15362,8 +16153,11 @@
       <c r="J260">
         <v>94</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1164</v>
       </c>
@@ -15388,8 +16182,11 @@
       <c r="J261">
         <v>95</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1165</v>
       </c>
@@ -15414,8 +16211,11 @@
       <c r="J262">
         <v>96</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1166</v>
       </c>
@@ -15440,8 +16240,11 @@
       <c r="J263">
         <v>97</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1167</v>
       </c>
@@ -15466,8 +16269,11 @@
       <c r="J264">
         <v>98</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1168</v>
       </c>
@@ -15492,8 +16298,11 @@
       <c r="J265">
         <v>99</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1169</v>
       </c>
@@ -15518,8 +16327,11 @@
       <c r="J266">
         <v>100</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1170</v>
       </c>
@@ -15544,8 +16356,11 @@
       <c r="J267">
         <v>101</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1171</v>
       </c>
@@ -15570,8 +16385,11 @@
       <c r="J268">
         <v>102</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1172</v>
       </c>
@@ -15596,8 +16414,11 @@
       <c r="J269">
         <v>103</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1173</v>
       </c>
@@ -15622,8 +16443,11 @@
       <c r="J270">
         <v>104</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1174</v>
       </c>
@@ -15648,8 +16472,11 @@
       <c r="J271">
         <v>105</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1175</v>
       </c>
@@ -15674,8 +16501,11 @@
       <c r="J272">
         <v>106</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1176</v>
       </c>
@@ -15700,8 +16530,11 @@
       <c r="J273">
         <v>107</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1177</v>
       </c>
@@ -15726,8 +16559,11 @@
       <c r="J274">
         <v>108</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1178</v>
       </c>
@@ -15752,8 +16588,11 @@
       <c r="J275">
         <v>109</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1179</v>
       </c>
@@ -15778,8 +16617,11 @@
       <c r="J276">
         <v>110</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1180</v>
       </c>
@@ -15804,8 +16646,11 @@
       <c r="J277">
         <v>111</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1181</v>
       </c>
@@ -15830,8 +16675,11 @@
       <c r="J278">
         <v>112</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1182</v>
       </c>
@@ -15856,8 +16704,11 @@
       <c r="J279">
         <v>113</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1183</v>
       </c>
@@ -15882,8 +16733,11 @@
       <c r="J280">
         <v>114</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1184</v>
       </c>
@@ -15908,8 +16762,11 @@
       <c r="J281">
         <v>115</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1185</v>
       </c>
@@ -15934,8 +16791,11 @@
       <c r="J282">
         <v>116</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1186</v>
       </c>
@@ -15960,8 +16820,11 @@
       <c r="J283">
         <v>117</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1187</v>
       </c>
@@ -15986,8 +16849,11 @@
       <c r="J284">
         <v>118</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1188</v>
       </c>
@@ -16012,8 +16878,11 @@
       <c r="J285">
         <v>119</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1189</v>
       </c>
@@ -16038,8 +16907,11 @@
       <c r="J286">
         <v>120</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1190</v>
       </c>
@@ -16064,8 +16936,11 @@
       <c r="J287">
         <v>121</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1191</v>
       </c>
@@ -16090,8 +16965,11 @@
       <c r="J288">
         <v>122</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1192</v>
       </c>
@@ -16116,8 +16994,11 @@
       <c r="J289">
         <v>123</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1193</v>
       </c>
@@ -16142,8 +17023,11 @@
       <c r="J290">
         <v>124</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1194</v>
       </c>
@@ -16168,8 +17052,11 @@
       <c r="J291">
         <v>125</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1195</v>
       </c>
@@ -16194,8 +17081,11 @@
       <c r="J292">
         <v>126</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1196</v>
       </c>
@@ -16220,8 +17110,11 @@
       <c r="J293">
         <v>127</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1197</v>
       </c>
@@ -16246,8 +17139,11 @@
       <c r="J294">
         <v>128</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1198</v>
       </c>
@@ -16272,8 +17168,11 @@
       <c r="J295">
         <v>129</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1199</v>
       </c>
@@ -16298,8 +17197,11 @@
       <c r="J296">
         <v>130</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1200</v>
       </c>
@@ -16324,8 +17226,11 @@
       <c r="J297">
         <v>131</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1201</v>
       </c>
@@ -16350,8 +17255,11 @@
       <c r="J298">
         <v>132</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1202</v>
       </c>
@@ -16376,8 +17284,11 @@
       <c r="J299">
         <v>133</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1203</v>
       </c>
@@ -16402,8 +17313,11 @@
       <c r="J300">
         <v>134</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1204</v>
       </c>
@@ -16428,8 +17342,11 @@
       <c r="J301">
         <v>135</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1205</v>
       </c>
@@ -16454,8 +17371,11 @@
       <c r="J302">
         <v>136</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1206</v>
       </c>
@@ -16480,8 +17400,11 @@
       <c r="J303">
         <v>137</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1207</v>
       </c>
@@ -16506,8 +17429,11 @@
       <c r="J304">
         <v>138</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1208</v>
       </c>
@@ -16531,6 +17457,9 @@
       </c>
       <c r="J305">
         <v>139</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
